--- a/template_excel/contoh_data_1.xlsx
+++ b/template_excel/contoh_data_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8280"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1538,8 +1538,8 @@
   <sheetPr/>
   <dimension ref="A1:U20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="149" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1622,10 +1622,10 @@
     </row>
     <row r="2" ht="28.8" spans="1:21">
       <c r="A2" s="1">
-        <v>20081</v>
+        <v>20111</v>
       </c>
       <c r="B2" s="1">
-        <v>99000081</v>
+        <v>99000111</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -1680,10 +1680,10 @@
     </row>
     <row r="3" ht="43.2" spans="1:21">
       <c r="A3" s="1">
-        <v>20082</v>
+        <v>20112</v>
       </c>
       <c r="B3" s="1">
-        <v>99000082</v>
+        <v>99000112</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>17</v>
